--- a/get-product/NewExcel.xlsx
+++ b/get-product/NewExcel.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,80 +424,63 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Sepeda Listrik Uwinfly df5s - tosca
-Rp 4.599.000</t>
+          <t>Sepeda Lipat BNB Nich Pro 9.1 - YELLOW
+Rp 2.980.000
+4.7
+Terjual 100+</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sepeda motor listrik uwinfly u2s - Hitam
-Rp 6.399.000</t>
+          <t>Sepeda BNB 16 Folding SUMMER - Silver
+Rp 4.600.000
+4.8
+Terjual 16</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sepeda listrik ion five - Merah
-Rp 5.399.000</t>
+          <t>Lampu Depan Sepeda 3 LED, bisa berkedip
+Rp26.910
+10%
+Rp29.900
+Jakarta Pusat
+SvkaBike
+4.8
+Terjual 100+</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Xiaomi WalkingPad Model Treadmil Pro Smart Treadmill PRO Kingsmith
-Rp5.548.590
-Cashback
-Jakarta Barat
-CV MAANBE BEAUTY
-5.0
-Terjual 4</t>
+          <t>BTWIN CL 100 Lampu Sepeda LED USB Rear Bike Light
+Rp180.000
+Tangerang
+Byron Official
+4.5
+Terjual 2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>West Biking Lampu Depan Sepeda 1000 Lumen USB 4000mAH YP0701322
-Rp195.000
-Dilayani Tokopedia
-vesantra
-5.0
-Terjual 40+</t>
+          <t>Sepeda Anak Mini Atlantis Nabila 12 Inch Dorongan Sepeda Mini Atlantis
+Rp375.000
+Kab. Bekasi
+Raja Murah Bike
+4.8
+Terjual 25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
-        <is>
-          <t>PAKET KOMPLIT SEPEDA LAMPU DEPAN BELAKANG RECHARGEABLE + BEL SEPEDA
-Rp55.000
-Jakarta Utara
-Chuan Store
-4.8
-Terjual 6 rb+</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Topi Sepeda Cycling Cap topi gowes reflektif RUNGKAD Topi Olahraga
-Rp81.000
-10%
-Rp90.000
-Bandung
-CKS Cloth
-5.0
-Terjual 30+</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
         <is>
           <t>[READY] Sepeda Dewasa Retro Classic dengan 7 Pengaturan Kecepatan
 Rp3.499.000
@@ -507,8 +490,21 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BEBEHOO 5 in 1 Multifunctional 5in1 Kids Scooter Sepeda Skuter Anak
+Rp685.000
+Cashback
+Jakarta Barat
+Blitzice Store
+4.9
+Terjual 90+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Promo Sepeda Anak 3 Roda 2 in 1/Anak Balance Bike Ride Roda Tiga
 Rp185.000
@@ -520,36 +516,20 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mainan Sepeda Anak 3 Roda 2in1 Sepeda Keseimbangan Anak Balance Bike
+Rp189.999
+Kab. Tangerang
+suksesteruuss
+4.9
+Terjual 250+</t>
+        </is>
+      </c>
+    </row>
     <row r="10">
       <c r="A10" t="inlineStr">
-        <is>
-          <t>MI-M261 Sepeda Keseimbangan Anak Tanpa Pedal / Sepeda Push Bike
-Rp179.000
-66%
-Rp520.000
-Kab. Tangerang
-Mmtoys Indonesia
-4.8
-Terjual 100+</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Balance bike / Push bike / Sepeda Anak Sepeda tanpa pedal
-Rp175.111
-17%
-Rp210.000
-Jakarta Timur
-NIZAMTOKO
-4.8
-Terjual 1 rb+</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
         <is>
           <t>sepeda mini ban eva untuk anak perempuan merek Erminio ukuran 12 "
 Rp377.500
@@ -560,8 +540,8 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Sportacular
 Sepeda Lipat | Sepeda Police Milan
@@ -575,6 +555,19 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Sepeda Listrik UWINFLY RF 6 / REDFISH 6 Electric E Bike 500 Watt
+Rp4.599.000
+Cashback
+Tangerang
+Sepeda Regency
+4.9
+Terjual 50+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
